--- a/calculos/TabelaCorrentes-Propriedades.xlsx
+++ b/calculos/TabelaCorrentes-Propriedades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Entropia (kJ/kg·K)</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ṁ (kg/h)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -476,6 +481,9 @@
       <c r="E2" t="n">
         <v>6.679589593773722</v>
       </c>
+      <c r="F2" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -493,6 +501,9 @@
       <c r="E3" t="n">
         <v>6.679589593773722</v>
       </c>
+      <c r="F3" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -510,6 +521,9 @@
       <c r="E4" t="n">
         <v>6.679589593773722</v>
       </c>
+      <c r="F4" t="n">
+        <v>8200</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -527,6 +541,9 @@
       <c r="E5" t="n">
         <v>6.679589593773722</v>
       </c>
+      <c r="F5" t="n">
+        <v>1800</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -544,6 +561,9 @@
       <c r="E6" t="n">
         <v>7.370528366729163</v>
       </c>
+      <c r="F6" t="n">
+        <v>8200</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -561,6 +581,9 @@
       <c r="E7" t="n">
         <v>7.370528366729163</v>
       </c>
+      <c r="F7" t="n">
+        <v>8200</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -578,6 +601,9 @@
       <c r="E8" t="n">
         <v>7.370528366729163</v>
       </c>
+      <c r="F8" t="n">
+        <v>1066</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -595,6 +621,9 @@
       <c r="E9" t="n">
         <v>7.370528366729163</v>
       </c>
+      <c r="F9" t="n">
+        <v>7134</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -612,6 +641,9 @@
       <c r="E10" t="n">
         <v>7.370528366729163</v>
       </c>
+      <c r="F10" t="n">
+        <v>7134</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -629,6 +661,9 @@
       <c r="E11" t="n">
         <v>0.6491956051958254</v>
       </c>
+      <c r="F11" t="n">
+        <v>7134</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -646,6 +681,9 @@
       <c r="E12" t="n">
         <v>0.6491956051958254</v>
       </c>
+      <c r="F12" t="n">
+        <v>7134</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -663,6 +701,9 @@
       <c r="E13" t="n">
         <v>1.665377133895464</v>
       </c>
+      <c r="F13" t="n">
+        <v>8200</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -680,6 +721,9 @@
       <c r="E14" t="n">
         <v>1.665377133895464</v>
       </c>
+      <c r="F14" t="n">
+        <v>8200</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -697,6 +741,9 @@
       <c r="E15" t="n">
         <v>2.676766815283484</v>
       </c>
+      <c r="F15" t="n">
+        <v>8200</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -714,6 +761,9 @@
       <c r="E16" t="n">
         <v>2.79676202371648</v>
       </c>
+      <c r="F16" t="n">
+        <v>1800</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -731,6 +781,9 @@
       <c r="E17" t="n">
         <v>2.79676202371648</v>
       </c>
+      <c r="F17" t="n">
+        <v>1800</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -747,6 +800,9 @@
       </c>
       <c r="E18" t="n">
         <v>2.698593438219358</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
